--- a/public/templates/divipole.xlsx
+++ b/public/templates/divipole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CEED\PuestosVotacion\DeviceCheck\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3619DF2D-6640-41EA-8A3C-3ED9659853AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B808E597-473B-4B4E-AEB8-7AA7F84DECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{51C2F127-5EDE-4C4C-B876-33722442B3BF}"/>
+    <workbookView xWindow="5475" yWindow="5025" windowWidth="18000" windowHeight="9270" xr2:uid="{51C2F127-5EDE-4C4C-B876-33722442B3BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>codigo</t>
+  </si>
+  <si>
+    <t>usuario_asignado</t>
+  </si>
+  <si>
+    <t>Otro centro</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Otro lado</t>
   </si>
 </sst>
 </file>
@@ -102,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0A6A68-9E46-4463-AF34-E681701E16B3}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,9 +446,10 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +468,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -462,7 +482,7 @@
       <c r="C2">
         <v>22</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>194</v>
       </c>
       <c r="E2" t="s">
@@ -471,8 +491,11 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="1">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -482,7 +505,7 @@
       <c r="C3">
         <v>22</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>195</v>
       </c>
       <c r="E3" t="s">
@@ -491,8 +514,11 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="1">
+        <v>3.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,13 +528,54 @@
       <c r="C4">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>196</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>465</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>465</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
       </c>
     </row>
